--- a/spec_format.xlsx
+++ b/spec_format.xlsx
@@ -1,26 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa54431\PycharmProjects\FirstPythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sesa54431\PycharmProjects\SE_datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2747B22-3738-4C08-8C8B-0213EAF26FD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031734EB-0D80-4C63-B695-967D23F50437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="spec_format" sheetId="1" r:id="rId1"/>
+    <sheet name="param_lib" sheetId="2" r:id="rId2"/>
+    <sheet name="pivot_param_lib" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">param_lib!$A$1:$B$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="32" r:id="rId4"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="241">
   <si>
     <t>Spec Param 1</t>
   </si>
@@ -110,13 +128,646 @@
   </si>
   <si>
     <t>IEC61812-1</t>
+  </si>
+  <si>
+    <t>standards</t>
+  </si>
+  <si>
+    <t>product certifications</t>
+  </si>
+  <si>
+    <t>marking</t>
+  </si>
+  <si>
+    <t>directives</t>
+  </si>
+  <si>
+    <t>ambient air temperature for storage</t>
+  </si>
+  <si>
+    <t>ambient air temperature for operation</t>
+  </si>
+  <si>
+    <t>relative humidity</t>
+  </si>
+  <si>
+    <t>vibration resistance</t>
+  </si>
+  <si>
+    <t>shock resistance</t>
+  </si>
+  <si>
+    <t>bump resistance</t>
+  </si>
+  <si>
+    <t>seismic resistance</t>
+  </si>
+  <si>
+    <t>IP degree of protection</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>net weight</t>
+  </si>
+  <si>
+    <t>mounting support</t>
+  </si>
+  <si>
+    <t>mounting position</t>
+  </si>
+  <si>
+    <t>Minimum distance to adjacent devices</t>
+  </si>
+  <si>
+    <t>connections - terminals</t>
+  </si>
+  <si>
+    <t>tightening torque</t>
+  </si>
+  <si>
+    <t>cable stripping length</t>
+  </si>
+  <si>
+    <t>duty time</t>
+  </si>
+  <si>
+    <t>electromagnetic compatibility</t>
+  </si>
+  <si>
+    <t>pollution degree</t>
+  </si>
+  <si>
+    <t>overvoltage category</t>
+  </si>
+  <si>
+    <t>circuit group</t>
+  </si>
+  <si>
+    <t>[Ui] rated insulation voltage</t>
+  </si>
+  <si>
+    <t>[Uimp] rated impulse withstand voltage</t>
+  </si>
+  <si>
+    <t>dielectric strength</t>
+  </si>
+  <si>
+    <t>insulation resistance</t>
+  </si>
+  <si>
+    <t>[Us] rated supply voltage</t>
+  </si>
+  <si>
+    <t>supply voltage limits</t>
+  </si>
+  <si>
+    <t>polarity</t>
+  </si>
+  <si>
+    <t>supply frequency</t>
+  </si>
+  <si>
+    <t>power consumption</t>
+  </si>
+  <si>
+    <t>immunity to microbreaks</t>
+  </si>
+  <si>
+    <t>supply terminal</t>
+  </si>
+  <si>
+    <t>on-load factor</t>
+  </si>
+  <si>
+    <t>release of input voltage</t>
+  </si>
+  <si>
+    <t>monitoring functions</t>
+  </si>
+  <si>
+    <t>internal input resistance</t>
+  </si>
+  <si>
+    <t>input terminal</t>
+  </si>
+  <si>
+    <t>Input nominal voltage selection</t>
+  </si>
+  <si>
+    <t>permissible input overload</t>
+  </si>
+  <si>
+    <t>input frequency</t>
+  </si>
+  <si>
+    <t>setting accuracy of the switching threshold</t>
+  </si>
+  <si>
+    <t>repeat accuracy of the switching threshold</t>
+  </si>
+  <si>
+    <t>measurement method</t>
+  </si>
+  <si>
+    <t>switching threshold drift</t>
+  </si>
+  <si>
+    <t>maximum measuring cycle</t>
+  </si>
+  <si>
+    <t>measurement range</t>
+  </si>
+  <si>
+    <t>tripping threshold</t>
+  </si>
+  <si>
+    <t>hysteresis</t>
+  </si>
+  <si>
+    <t>output type</t>
+  </si>
+  <si>
+    <t>output terminal</t>
+  </si>
+  <si>
+    <t>output logic</t>
+  </si>
+  <si>
+    <t>contacts material</t>
+  </si>
+  <si>
+    <t>mechanical durability</t>
+  </si>
+  <si>
+    <t>electrical durability</t>
+  </si>
+  <si>
+    <t>[Ue] rated operational voltage</t>
+  </si>
+  <si>
+    <t>[Ie] rated operational current</t>
+  </si>
+  <si>
+    <t>maximum switching capacity</t>
+  </si>
+  <si>
+    <t>minimum switching capacity</t>
+  </si>
+  <si>
+    <t>maximum voltage drop</t>
+  </si>
+  <si>
+    <t>maximum leakage current</t>
+  </si>
+  <si>
+    <t>thermal current</t>
+  </si>
+  <si>
+    <t>short circuit protection</t>
+  </si>
+  <si>
+    <t>time delay type</t>
+  </si>
+  <si>
+    <t>time delay range</t>
+  </si>
+  <si>
+    <t>response time</t>
+  </si>
+  <si>
+    <t>power on delay</t>
+  </si>
+  <si>
+    <t>reset time</t>
+  </si>
+  <si>
+    <t>setting accuracy of time delay</t>
+  </si>
+  <si>
+    <t>repeat accuracy of time delay</t>
+  </si>
+  <si>
+    <t>time delay drift</t>
+  </si>
+  <si>
+    <t>status LED</t>
+  </si>
+  <si>
+    <t>local signalling</t>
+  </si>
+  <si>
+    <t>diagnostic button</t>
+  </si>
+  <si>
+    <t>safety reliability data</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>CAD overall depth</t>
+  </si>
+  <si>
+    <t>CAD overall height</t>
+  </si>
+  <si>
+    <t>CAD overall width</t>
+  </si>
+  <si>
+    <t>Coil insulation class</t>
+  </si>
+  <si>
+    <t>Coil resistance</t>
+  </si>
+  <si>
+    <t>Control signal pulse width</t>
+  </si>
+  <si>
+    <t>Maximum contact resistance</t>
+  </si>
+  <si>
+    <t>Operate time</t>
+  </si>
+  <si>
+    <t>Power on delay</t>
+  </si>
+  <si>
+    <t>Rated impulse withstand voltage</t>
+  </si>
+  <si>
+    <t>Recovery time</t>
+  </si>
+  <si>
+    <t>Release input voltage</t>
+  </si>
+  <si>
+    <t>Release time</t>
+  </si>
+  <si>
+    <t>[Ithe] conventional enclosed thermal current</t>
+  </si>
+  <si>
+    <t>[Uc] control circuit voltage</t>
+  </si>
+  <si>
+    <t>abnormal analogue output current</t>
+  </si>
+  <si>
+    <t>abnormal analogue output voltage</t>
+  </si>
+  <si>
+    <t>adjustment of asymmetry threshold</t>
+  </si>
+  <si>
+    <t>average coil consumption</t>
+  </si>
+  <si>
+    <t>average coil consumption in VA</t>
+  </si>
+  <si>
+    <t>average coil resistance</t>
+  </si>
+  <si>
+    <t>average consumption</t>
+  </si>
+  <si>
+    <t>average resistance</t>
+  </si>
+  <si>
+    <t>cable entry</t>
+  </si>
+  <si>
+    <t>clamping connection capacity</t>
+  </si>
+  <si>
+    <t>cold junction compensation</t>
+  </si>
+  <si>
+    <t>colour of cover</t>
+  </si>
+  <si>
+    <t>contact bounce time</t>
+  </si>
+  <si>
+    <t>contacts type and composition</t>
+  </si>
+  <si>
+    <t>control circuit frequency</t>
+  </si>
+  <si>
+    <t>control circuit voltage limits</t>
+  </si>
+  <si>
+    <t>control type</t>
+  </si>
+  <si>
+    <t>creepage distance</t>
+  </si>
+  <si>
+    <t>current consumption</t>
+  </si>
+  <si>
+    <t>delay at power up</t>
+  </si>
+  <si>
+    <t>device presentation</t>
+  </si>
+  <si>
+    <t>drop-out voltage threshold</t>
+  </si>
+  <si>
+    <t>fixing mode</t>
+  </si>
+  <si>
+    <t>housing material</t>
+  </si>
+  <si>
+    <t>input current</t>
+  </si>
+  <si>
+    <t>insulation</t>
+  </si>
+  <si>
+    <t>load current</t>
+  </si>
+  <si>
+    <t>maximum power consumption in W</t>
+  </si>
+  <si>
+    <t>maximum switching current</t>
+  </si>
+  <si>
+    <t>maximum switching voltage</t>
+  </si>
+  <si>
+    <t>measurement accuracy</t>
+  </si>
+  <si>
+    <t>measurement error</t>
+  </si>
+  <si>
+    <t>measurement voltage limits</t>
+  </si>
+  <si>
+    <t>minimum switching current</t>
+  </si>
+  <si>
+    <t>minimum switching voltage</t>
+  </si>
+  <si>
+    <t>nominal output current</t>
+  </si>
+  <si>
+    <t>operating position</t>
+  </si>
+  <si>
+    <t>operating rate</t>
+  </si>
+  <si>
+    <t>operating time</t>
+  </si>
+  <si>
+    <t>operating voltage tolerance</t>
+  </si>
+  <si>
+    <t>output contacts</t>
+  </si>
+  <si>
+    <t>phase failure sensitivity</t>
+  </si>
+  <si>
+    <t>power consumption in VA</t>
+  </si>
+  <si>
+    <t>power consumption in W</t>
+  </si>
+  <si>
+    <t>protection category</t>
+  </si>
+  <si>
+    <t>protection type</t>
+  </si>
+  <si>
+    <t>rated operational voltage limits</t>
+  </si>
+  <si>
+    <t>repeat accuracy</t>
+  </si>
+  <si>
+    <t>resistive rated load</t>
+  </si>
+  <si>
+    <t>sale per indivisible quantity</t>
+  </si>
+  <si>
+    <t>shape of pin</t>
+  </si>
+  <si>
+    <t>surge withstand</t>
+  </si>
+  <si>
+    <t>switching capacity in VA</t>
+  </si>
+  <si>
+    <t>switching time</t>
+  </si>
+  <si>
+    <t>temperature coefficient</t>
+  </si>
+  <si>
+    <t>temperature drift</t>
+  </si>
+  <si>
+    <t>terminals description ISO n°1</t>
+  </si>
+  <si>
+    <t>test levels</t>
+  </si>
+  <si>
+    <t>threshold adjustment voltage</t>
+  </si>
+  <si>
+    <t>threshold setting</t>
+  </si>
+  <si>
+    <t>torque value</t>
+  </si>
+  <si>
+    <t>utilisation category</t>
+  </si>
+  <si>
+    <t>utilisation coefficient</t>
+  </si>
+  <si>
+    <t>voltage drift</t>
+  </si>
+  <si>
+    <t>voltage range</t>
+  </si>
+  <si>
+    <t>Warranty</t>
+  </si>
+  <si>
+    <t>dielectric test voltage</t>
+  </si>
+  <si>
+    <t>disturbance radiated/conducted</t>
+  </si>
+  <si>
+    <t>electrical shock protection class</t>
+  </si>
+  <si>
+    <t>fire resistance</t>
+  </si>
+  <si>
+    <t>non-dissipating shock wave</t>
+  </si>
+  <si>
+    <t>protective treatment</t>
+  </si>
+  <si>
+    <t>resistance to electrostatic discharge</t>
+  </si>
+  <si>
+    <t>resistance to fast transients</t>
+  </si>
+  <si>
+    <t>analogue input type</t>
+  </si>
+  <si>
+    <t>analogue output type</t>
+  </si>
+  <si>
+    <t>beacon or indicator bank unit type</t>
+  </si>
+  <si>
+    <t>bulb type</t>
+  </si>
+  <si>
+    <t>coil interference suppression</t>
+  </si>
+  <si>
+    <t>component name</t>
+  </si>
+  <si>
+    <t>contact operation</t>
+  </si>
+  <si>
+    <t>device short name</t>
+  </si>
+  <si>
+    <t>discrete output type</t>
+  </si>
+  <si>
+    <t>light source</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>maximum power consumption in VA</t>
+  </si>
+  <si>
+    <t>maximum power dissipation in W</t>
+  </si>
+  <si>
+    <t>mounting diameter</t>
+  </si>
+  <si>
+    <t>product or component type</t>
+  </si>
+  <si>
+    <t>product specific application</t>
+  </si>
+  <si>
+    <t>range of product</t>
+  </si>
+  <si>
+    <t>relay monitored parameters</t>
+  </si>
+  <si>
+    <t>relay name</t>
+  </si>
+  <si>
+    <t>relay type</t>
+  </si>
+  <si>
+    <t>series name</t>
+  </si>
+  <si>
+    <t>signalling type</t>
+  </si>
+  <si>
+    <t>time delay</t>
+  </si>
+  <si>
+    <t>China RoHS Regulation</t>
+  </si>
+  <si>
+    <t>Circularity Profile</t>
+  </si>
+  <si>
+    <t>EU RoHS Directive</t>
+  </si>
+  <si>
+    <t>Environmental Disclosure</t>
+  </si>
+  <si>
+    <t>Mercury free</t>
+  </si>
+  <si>
+    <t>REACh Regulation</t>
+  </si>
+  <si>
+    <t>REACh free of SVHC</t>
+  </si>
+  <si>
+    <t>RoHS exemption information</t>
+  </si>
+  <si>
+    <t>Sustainable offer status</t>
+  </si>
+  <si>
+    <t>Toxic heavy metal free</t>
+  </si>
+  <si>
+    <t>WEEE</t>
+  </si>
+  <si>
+    <t>Package 1 Weight</t>
+  </si>
+  <si>
+    <t>Package 2 Weight</t>
+  </si>
+  <si>
+    <t>Package 3 Weight</t>
+  </si>
+  <si>
+    <t>Param</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,8 +787,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +806,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -184,11 +855,291 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="90">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -199,6 +1150,2820 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yew Loung LIEW" refreshedDate="44146.037671296297" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="255" xr:uid="{D5590988-D510-4E4E-AB06-FE25453218C6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B10000" sheet="param_lib"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Param" numFmtId="0">
+      <sharedItems containsBlank="1" count="207">
+        <s v="Parameters"/>
+        <s v="CAD overall depth"/>
+        <s v="CAD overall height"/>
+        <s v="CAD overall width"/>
+        <s v="Coil insulation class"/>
+        <s v="Coil resistance"/>
+        <s v="Control signal pulse width"/>
+        <s v="Maximum contact resistance"/>
+        <s v="Operate time"/>
+        <s v="Power on delay"/>
+        <s v="Rated impulse withstand voltage"/>
+        <s v="Recovery time"/>
+        <s v="Release input voltage"/>
+        <s v="Release time"/>
+        <s v="[Ie] rated operational current"/>
+        <s v="[Ithe] conventional enclosed thermal current"/>
+        <s v="[Uc] control circuit voltage"/>
+        <s v="[Ue] rated operational voltage"/>
+        <s v="[Ui] rated insulation voltage"/>
+        <s v="[Uimp] rated impulse withstand voltage"/>
+        <s v="[Us] rated supply voltage"/>
+        <s v="abnormal analogue output current"/>
+        <s v="abnormal analogue output voltage"/>
+        <s v="adjustment of asymmetry threshold"/>
+        <s v="average coil consumption"/>
+        <s v="average coil consumption in VA"/>
+        <s v="average coil resistance"/>
+        <s v="average consumption"/>
+        <s v="average resistance"/>
+        <s v="cable entry"/>
+        <s v="clamping connection capacity"/>
+        <s v="cold junction compensation"/>
+        <s v="colour of cover"/>
+        <s v="connections - terminals"/>
+        <s v="contact bounce time"/>
+        <s v="contacts material"/>
+        <s v="contacts type and composition"/>
+        <s v="control circuit frequency"/>
+        <s v="control circuit voltage limits"/>
+        <s v="control type"/>
+        <s v="creepage distance"/>
+        <s v="current consumption"/>
+        <s v="delay at power up"/>
+        <s v="device presentation"/>
+        <s v="dielectric strength"/>
+        <s v="drop-out voltage threshold"/>
+        <s v="electrical durability"/>
+        <s v="fixing mode"/>
+        <s v="housing material"/>
+        <s v="hysteresis"/>
+        <s v="immunity to microbreaks"/>
+        <s v="input current"/>
+        <s v="insulation"/>
+        <s v="insulation resistance"/>
+        <s v="load current"/>
+        <s v="local signalling"/>
+        <s v="marking"/>
+        <s v="maximum measuring cycle"/>
+        <s v="maximum power consumption in W"/>
+        <s v="maximum switching capacity"/>
+        <s v="maximum switching current"/>
+        <s v="maximum switching voltage"/>
+        <s v="maximum voltage drop"/>
+        <s v="measurement accuracy"/>
+        <s v="measurement error"/>
+        <s v="measurement voltage limits"/>
+        <s v="mechanical durability"/>
+        <s v="minimum switching capacity"/>
+        <s v="minimum switching current"/>
+        <s v="minimum switching voltage"/>
+        <s v="mounting position"/>
+        <s v="mounting support"/>
+        <s v="net weight"/>
+        <s v="nominal output current"/>
+        <s v="operating position"/>
+        <s v="operating rate"/>
+        <s v="operating time"/>
+        <s v="operating voltage tolerance"/>
+        <s v="output contacts"/>
+        <s v="overvoltage category"/>
+        <s v="phase failure sensitivity"/>
+        <s v="polarity"/>
+        <s v="power consumption in VA"/>
+        <s v="power consumption in W"/>
+        <s v="protection category"/>
+        <s v="protection type"/>
+        <s v="rated operational voltage limits"/>
+        <s v="repeat accuracy"/>
+        <s v="reset time"/>
+        <s v="resistive rated load"/>
+        <s v="response time"/>
+        <s v="safety reliability data"/>
+        <s v="sale per indivisible quantity"/>
+        <s v="setting accuracy of time delay"/>
+        <s v="shape of pin"/>
+        <s v="status LED"/>
+        <s v="supply frequency"/>
+        <s v="supply voltage limits"/>
+        <s v="surge withstand"/>
+        <s v="switching capacity in VA"/>
+        <s v="switching time"/>
+        <s v="temperature coefficient"/>
+        <s v="temperature drift"/>
+        <s v="terminals description ISO n°1"/>
+        <s v="test levels"/>
+        <s v="threshold adjustment voltage"/>
+        <s v="threshold setting"/>
+        <s v="tightening torque"/>
+        <s v="time delay range"/>
+        <s v="time delay type"/>
+        <s v="torque value"/>
+        <s v="utilisation category"/>
+        <s v="utilisation coefficient"/>
+        <s v="voltage drift"/>
+        <s v="voltage range"/>
+        <s v="width"/>
+        <s v="Warranty"/>
+        <s v="IP degree of protection"/>
+        <s v="ambient air temperature for operation"/>
+        <s v="ambient air temperature for storage"/>
+        <s v="dielectric test voltage"/>
+        <s v="directives"/>
+        <s v="disturbance radiated/conducted"/>
+        <s v="electrical shock protection class"/>
+        <s v="electromagnetic compatibility"/>
+        <s v="fire resistance"/>
+        <s v="non-dissipating shock wave"/>
+        <s v="pollution degree"/>
+        <s v="product certifications"/>
+        <s v="protective treatment"/>
+        <s v="relative humidity"/>
+        <s v="resistance to electrostatic discharge"/>
+        <s v="resistance to fast transients"/>
+        <s v="shock resistance"/>
+        <s v="standards"/>
+        <s v="vibration resistance"/>
+        <s v="analogue input type"/>
+        <s v="analogue output type"/>
+        <s v="beacon or indicator bank unit type"/>
+        <s v="bulb type"/>
+        <s v="coil interference suppression"/>
+        <s v="component name"/>
+        <s v="contact operation"/>
+        <s v="device short name"/>
+        <s v="discrete output type"/>
+        <s v="light source"/>
+        <s v="material"/>
+        <s v="maximum power consumption in VA"/>
+        <s v="maximum power dissipation in W"/>
+        <s v="measurement range"/>
+        <s v="mounting diameter"/>
+        <s v="product or component type"/>
+        <s v="product specific application"/>
+        <s v="range of product"/>
+        <s v="relay monitored parameters"/>
+        <s v="relay name"/>
+        <s v="relay type"/>
+        <s v="series name"/>
+        <s v="signalling type"/>
+        <s v="time delay"/>
+        <s v="China RoHS Regulation"/>
+        <s v="Circularity Profile"/>
+        <s v="EU RoHS Directive"/>
+        <s v="Environmental Disclosure"/>
+        <s v="Mercury free"/>
+        <s v="REACh Regulation"/>
+        <s v="REACh free of SVHC"/>
+        <s v="RoHS exemption information"/>
+        <s v="Sustainable offer status"/>
+        <s v="Toxic heavy metal free"/>
+        <s v="WEEE"/>
+        <s v="Package 1 Weight"/>
+        <s v="Package 2 Weight"/>
+        <s v="Package 3 Weight"/>
+        <s v="bump resistance"/>
+        <s v="cable stripping length"/>
+        <s v="circuit group"/>
+        <s v="depth"/>
+        <s v="diagnostic button"/>
+        <s v="duty time"/>
+        <s v="height"/>
+        <s v="input frequency"/>
+        <s v="Input nominal voltage selection"/>
+        <s v="input terminal"/>
+        <s v="internal input resistance"/>
+        <s v="maximum leakage current"/>
+        <s v="measurement method"/>
+        <s v="Minimum distance to adjacent devices"/>
+        <s v="monitoring functions"/>
+        <s v="on-load factor"/>
+        <s v="output logic"/>
+        <s v="output terminal"/>
+        <s v="output type"/>
+        <s v="permissible input overload"/>
+        <s v="power consumption"/>
+        <s v="release of input voltage"/>
+        <s v="repeat accuracy of the switching threshold"/>
+        <s v="repeat accuracy of time delay"/>
+        <s v="seismic resistance"/>
+        <s v="setting accuracy of the switching threshold"/>
+        <s v="short circuit protection"/>
+        <s v="supply terminal"/>
+        <s v="switching threshold drift"/>
+        <s v="thermal current"/>
+        <s v="time delay drift"/>
+        <s v="tripping threshold"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="300" count="106">
+        <m/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="76"/>
+        <n v="75"/>
+        <n v="82"/>
+        <n v="83"/>
+        <n v="73"/>
+        <n v="10"/>
+        <n v="7"/>
+        <n v="35"/>
+        <n v="65"/>
+        <n v="74"/>
+        <n v="77"/>
+        <n v="41"/>
+        <n v="84"/>
+        <n v="78"/>
+        <n v="8"/>
+        <n v="11"/>
+        <n v="85"/>
+        <n v="15"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="25"/>
+        <n v="67"/>
+        <n v="20"/>
+        <n v="6"/>
+        <n v="51"/>
+        <n v="24"/>
+        <n v="5"/>
+        <n v="4"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="58"/>
+        <n v="59"/>
+        <n v="86"/>
+        <n v="87"/>
+        <n v="93"/>
+        <n v="44"/>
+        <n v="9"/>
+        <n v="60"/>
+        <n v="88"/>
+        <n v="89"/>
+        <n v="50"/>
+        <n v="55"/>
+        <n v="64"/>
+        <n v="56"/>
+        <n v="57"/>
+        <n v="46"/>
+        <n v="34"/>
+        <n v="48"/>
+        <n v="45"/>
+        <n v="38"/>
+        <n v="23"/>
+        <n v="90"/>
+        <n v="91"/>
+        <n v="42"/>
+        <n v="96"/>
+        <n v="68"/>
+        <n v="71"/>
+        <n v="29"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="21"/>
+        <n v="40"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="37"/>
+        <n v="43"/>
+        <n v="72"/>
+        <n v="52"/>
+        <n v="79"/>
+        <n v="81"/>
+        <n v="80"/>
+        <n v="292"/>
+        <n v="293"/>
+        <n v="294"/>
+        <n v="295"/>
+        <n v="296"/>
+        <n v="297"/>
+        <n v="298"/>
+        <n v="299"/>
+        <n v="300"/>
+        <n v="14"/>
+        <n v="16"/>
+        <n v="19"/>
+        <n v="22"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="92"/>
+        <n v="94"/>
+        <n v="95"/>
+        <n v="61"/>
+        <n v="62"/>
+        <n v="63"/>
+        <n v="53"/>
+        <n v="54"/>
+        <n v="66"/>
+        <n v="47"/>
+        <n v="36"/>
+        <n v="49"/>
+        <n v="39"/>
+        <n v="70"/>
+        <n v="69"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="255">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="47"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="48"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="60"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="61"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="69"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="73"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="74"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="75"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="76"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="77"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="78"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="80"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="82"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="83"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="84"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="85"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="86"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="87"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="89"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="92"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="94"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="98"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="99"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="100"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="101"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="102"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="103"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="104"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="105"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="106"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="110"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="111"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="112"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="113"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="114"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="116"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="120"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="122"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="123"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="125"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="126"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="129"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="131"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="132"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="136"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="137"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="138"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="139"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="140"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="141"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="142"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="143"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="144"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="145"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="146"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="147"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="148"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="150"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="151"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="152"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="153"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="154"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="155"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="156"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="157"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="158"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="159"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="160"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="161"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="162"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="163"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="164"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="165"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="166"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="167"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="168"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="169"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="170"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="171"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="172"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="173"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="118"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="119"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="174"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="175"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="176"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="177"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="178"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="121"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="179"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="46"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="124"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="180"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="181"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="182"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="183"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="184"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="117"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="185"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="57"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="59"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="186"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="149"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="187"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="67"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="188"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="70"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="71"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="72"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="189"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="190"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="191"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="192"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="79"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="193"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="81"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="127"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="194"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="128"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="130"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="195"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="196"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="197"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="88"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="90"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="91"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="198"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="199"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="93"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="133"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="200"/>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="134"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="95"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="96"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="201"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="97"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="202"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="203"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="107"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="204"/>
+    <x v="104"/>
+  </r>
+  <r>
+    <x v="108"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="109"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="205"/>
+    <x v="105"/>
+  </r>
+  <r>
+    <x v="135"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="115"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="206"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{351A3953-8150-4CDB-A293-8C6946C7E5B3}" name="PivotTable1" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B212" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="208">
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="174"/>
+        <item x="29"/>
+        <item x="175"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="160"/>
+        <item x="176"/>
+        <item x="161"/>
+        <item x="30"/>
+        <item x="4"/>
+        <item x="140"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="141"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="142"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="6"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="177"/>
+        <item x="43"/>
+        <item x="143"/>
+        <item x="178"/>
+        <item x="44"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="144"/>
+        <item x="122"/>
+        <item x="45"/>
+        <item x="179"/>
+        <item x="46"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="163"/>
+        <item x="162"/>
+        <item x="125"/>
+        <item x="47"/>
+        <item x="180"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="184"/>
+        <item x="117"/>
+        <item x="145"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="146"/>
+        <item x="7"/>
+        <item x="185"/>
+        <item x="57"/>
+        <item x="147"/>
+        <item x="58"/>
+        <item x="148"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="186"/>
+        <item x="149"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="164"/>
+        <item x="187"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="188"/>
+        <item x="150"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="126"/>
+        <item x="189"/>
+        <item x="8"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="79"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="0"/>
+        <item x="193"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="127"/>
+        <item x="194"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="9"/>
+        <item x="128"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="129"/>
+        <item x="153"/>
+        <item x="10"/>
+        <item x="86"/>
+        <item x="166"/>
+        <item x="165"/>
+        <item x="11"/>
+        <item x="130"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="12"/>
+        <item x="195"/>
+        <item x="13"/>
+        <item x="87"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="88"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="167"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="198"/>
+        <item x="157"/>
+        <item x="199"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="133"/>
+        <item x="200"/>
+        <item x="158"/>
+        <item x="134"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="201"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="168"/>
+        <item x="99"/>
+        <item x="202"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="203"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="159"/>
+        <item x="204"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="169"/>
+        <item x="205"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="135"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="116"/>
+        <item x="170"/>
+        <item x="115"/>
+        <item x="206"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="106">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="27"/>
+        <item x="10"/>
+        <item x="18"/>
+        <item x="40"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="21"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="29"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="19"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="54"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="22"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="24"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="15"/>
+        <item x="39"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="11"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="57"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="12"/>
+        <item x="28"/>
+        <item x="34"/>
+        <item x="25"/>
+        <item x="35"/>
+        <item x="41"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="59"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="60"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="72"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="16"/>
+        <item x="20"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="38"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="58"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="209">
+    <i>
+      <x/>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="205"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="111"/>
+    </i>
+    <i r="1">
+      <x v="142"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="99"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i r="1">
+      <x v="100"/>
+    </i>
+    <i r="1">
+      <x v="109"/>
+    </i>
+    <i r="1">
+      <x v="110"/>
+    </i>
+    <i r="1">
+      <x v="115"/>
+    </i>
+    <i r="1">
+      <x v="117"/>
+    </i>
+    <i r="1">
+      <x v="118"/>
+    </i>
+    <i r="1">
+      <x v="126"/>
+    </i>
+    <i r="1">
+      <x v="128"/>
+    </i>
+    <i r="1">
+      <x v="136"/>
+    </i>
+    <i r="1">
+      <x v="137"/>
+    </i>
+    <i r="1">
+      <x v="140"/>
+    </i>
+    <i r="1">
+      <x v="164"/>
+    </i>
+    <i r="1">
+      <x v="169"/>
+    </i>
+    <i r="1">
+      <x v="185"/>
+    </i>
+    <i r="1">
+      <x v="186"/>
+    </i>
+    <i r="1">
+      <x v="191"/>
+    </i>
+    <i r="1">
+      <x v="198"/>
+    </i>
+    <i r="1">
+      <x v="199"/>
+    </i>
+    <i r="1">
+      <x v="203"/>
+    </i>
+    <i r="1">
+      <x v="206"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="134"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="81"/>
+    </i>
+    <i r="1">
+      <x v="172"/>
+    </i>
+    <i r="1">
+      <x v="174"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="143"/>
+    </i>
+    <i r="1">
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="173"/>
+    </i>
+    <i>
+      <x v="22"/>
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="158"/>
+    </i>
+    <i r="1">
+      <x v="159"/>
+    </i>
+    <i r="1">
+      <x v="178"/>
+    </i>
+    <i>
+      <x v="23"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="27"/>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="28"/>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="29"/>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="30"/>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="31"/>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="32"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="187"/>
+    </i>
+    <i>
+      <x v="33"/>
+      <x v="94"/>
+    </i>
+    <i r="1">
+      <x v="167"/>
+    </i>
+    <i>
+      <x v="34"/>
+      <x v="154"/>
+    </i>
+    <i r="1">
+      <x v="155"/>
+    </i>
+    <i>
+      <x v="35"/>
+      <x v="157"/>
+    </i>
+    <i>
+      <x v="36"/>
+      <x v="116"/>
+    </i>
+    <i r="1">
+      <x v="146"/>
+    </i>
+    <i r="1">
+      <x v="161"/>
+    </i>
+    <i r="1">
+      <x v="182"/>
+    </i>
+    <i>
+      <x v="37"/>
+      <x v="163"/>
+    </i>
+    <i>
+      <x v="38"/>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="39"/>
+      <x v="175"/>
+    </i>
+    <i>
+      <x v="40"/>
+      <x v="190"/>
+    </i>
+    <i r="1">
+      <x v="195"/>
+    </i>
+    <i>
+      <x v="41"/>
+      <x v="130"/>
+    </i>
+    <i>
+      <x v="42"/>
+      <x v="135"/>
+    </i>
+    <i>
+      <x v="43"/>
+      <x v="147"/>
+    </i>
+    <i>
+      <x v="44"/>
+      <x v="170"/>
+    </i>
+    <i>
+      <x v="45"/>
+      <x v="200"/>
+    </i>
+    <i>
+      <x v="46"/>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="47"/>
+      <x v="165"/>
+    </i>
+    <i>
+      <x v="48"/>
+      <x v="171"/>
+    </i>
+    <i>
+      <x v="49"/>
+      <x v="176"/>
+    </i>
+    <i>
+      <x v="50"/>
+      <x v="151"/>
+    </i>
+    <i r="1">
+      <x v="152"/>
+    </i>
+    <i>
+      <x v="51"/>
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="108"/>
+    </i>
+    <i>
+      <x v="52"/>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="53"/>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="87"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="131"/>
+    </i>
+    <i r="1">
+      <x v="132"/>
+    </i>
+    <i r="1">
+      <x v="133"/>
+    </i>
+    <i>
+      <x v="54"/>
+      <x v="90"/>
+    </i>
+    <i r="1">
+      <x v="180"/>
+    </i>
+    <i>
+      <x v="55"/>
+      <x v="102"/>
+    </i>
+    <i>
+      <x v="56"/>
+      <x v="107"/>
+    </i>
+    <i r="1">
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="57"/>
+      <x v="122"/>
+    </i>
+    <i>
+      <x v="58"/>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="59"/>
+      <x v="138"/>
+    </i>
+    <i>
+      <x v="60"/>
+      <x v="139"/>
+    </i>
+    <i>
+      <x v="61"/>
+      <x v="194"/>
+    </i>
+    <i>
+      <x v="62"/>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="149"/>
+    </i>
+    <i>
+      <x v="63"/>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="64"/>
+      <x v="101"/>
+    </i>
+    <i>
+      <x v="65"/>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="66"/>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="67"/>
+      <x v="120"/>
+    </i>
+    <i>
+      <x v="68"/>
+      <x v="121"/>
+    </i>
+    <i>
+      <x v="69"/>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="70"/>
+      <x v="181"/>
+    </i>
+    <i r="1">
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="71"/>
+      <x v="192"/>
+    </i>
+    <i>
+      <x v="72"/>
+      <x v="197"/>
+    </i>
+    <i>
+      <x v="73"/>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="74"/>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="75"/>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="76"/>
+      <x v="153"/>
+    </i>
+    <i>
+      <x v="77"/>
+      <x/>
+    </i>
+    <i>
+      <x v="78"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="202"/>
+    </i>
+    <i>
+      <x v="79"/>
+      <x v="141"/>
+    </i>
+    <i>
+      <x v="80"/>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="81"/>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="82"/>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="83"/>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="84"/>
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="85"/>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="86"/>
+      <x v="103"/>
+    </i>
+    <i>
+      <x v="87"/>
+      <x v="104"/>
+    </i>
+    <i>
+      <x v="88"/>
+      <x v="105"/>
+    </i>
+    <i r="1">
+      <x v="148"/>
+    </i>
+    <i>
+      <x v="89"/>
+      <x v="150"/>
+    </i>
+    <i r="1">
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="90"/>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="91"/>
+      <x v="183"/>
+    </i>
+    <i r="1">
+      <x v="184"/>
+    </i>
+    <i>
+      <x v="92"/>
+      <x v="188"/>
+    </i>
+    <i r="1">
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="93"/>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="94"/>
+      <x v="145"/>
+    </i>
+    <i>
+      <x v="95"/>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="96"/>
+      <x v="162"/>
+    </i>
+    <i>
+      <x v="97"/>
+      <x v="179"/>
+    </i>
+    <i>
+      <x v="98"/>
+      <x v="196"/>
+    </i>
+    <i>
+      <x v="99"/>
+      <x v="204"/>
+    </i>
+    <i>
+      <x v="100"/>
+      <x v="123"/>
+    </i>
+    <i>
+      <x v="101"/>
+      <x v="124"/>
+    </i>
+    <i>
+      <x v="102"/>
+      <x v="125"/>
+    </i>
+    <i>
+      <x v="103"/>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="104"/>
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="105"/>
+      <x v="97"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <formats count="18">
+    <format dxfId="89">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="87">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="2">
+            <x v="24"/>
+            <x v="49"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="2">
+            <x v="25"/>
+            <x v="67"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="2">
+            <x v="26"/>
+            <x v="205"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="76"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="70"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="60"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="5"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="77">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="2">
+            <x v="4"/>
+            <x v="75"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="76">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="1">
+            <x v="99"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="75">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="50">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="2"/>
+            <x v="3"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
+            <x v="12"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="16"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="20"/>
+            <x v="21"/>
+            <x v="22"/>
+            <x v="23"/>
+            <x v="27"/>
+            <x v="28"/>
+            <x v="29"/>
+            <x v="30"/>
+            <x v="31"/>
+            <x v="32"/>
+            <x v="33"/>
+            <x v="34"/>
+            <x v="35"/>
+            <x v="36"/>
+            <x v="37"/>
+            <x v="38"/>
+            <x v="39"/>
+            <x v="40"/>
+            <x v="41"/>
+            <x v="42"/>
+            <x v="43"/>
+            <x v="44"/>
+            <x v="45"/>
+            <x v="46"/>
+            <x v="47"/>
+            <x v="48"/>
+            <x v="50"/>
+            <x v="51"/>
+            <x v="52"/>
+            <x v="53"/>
+            <x v="54"/>
+            <x v="55"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="74">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="50">
+            <x v="56"/>
+            <x v="57"/>
+            <x v="58"/>
+            <x v="59"/>
+            <x v="61"/>
+            <x v="62"/>
+            <x v="63"/>
+            <x v="64"/>
+            <x v="65"/>
+            <x v="66"/>
+            <x v="68"/>
+            <x v="69"/>
+            <x v="71"/>
+            <x v="72"/>
+            <x v="73"/>
+            <x v="74"/>
+            <x v="77"/>
+            <x v="78"/>
+            <x v="79"/>
+            <x v="80"/>
+            <x v="81"/>
+            <x v="82"/>
+            <x v="83"/>
+            <x v="84"/>
+            <x v="85"/>
+            <x v="86"/>
+            <x v="87"/>
+            <x v="88"/>
+            <x v="89"/>
+            <x v="90"/>
+            <x v="91"/>
+            <x v="92"/>
+            <x v="93"/>
+            <x v="94"/>
+            <x v="95"/>
+            <x v="96"/>
+            <x v="97"/>
+            <x v="98"/>
+            <x v="100"/>
+            <x v="101"/>
+            <x v="102"/>
+            <x v="103"/>
+            <x v="104"/>
+            <x v="105"/>
+            <x v="106"/>
+            <x v="107"/>
+            <x v="108"/>
+            <x v="109"/>
+            <x v="110"/>
+            <x v="111"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="50">
+            <x v="112"/>
+            <x v="113"/>
+            <x v="114"/>
+            <x v="115"/>
+            <x v="116"/>
+            <x v="117"/>
+            <x v="118"/>
+            <x v="119"/>
+            <x v="120"/>
+            <x v="121"/>
+            <x v="122"/>
+            <x v="123"/>
+            <x v="124"/>
+            <x v="125"/>
+            <x v="126"/>
+            <x v="127"/>
+            <x v="128"/>
+            <x v="129"/>
+            <x v="130"/>
+            <x v="131"/>
+            <x v="132"/>
+            <x v="133"/>
+            <x v="134"/>
+            <x v="135"/>
+            <x v="136"/>
+            <x v="137"/>
+            <x v="138"/>
+            <x v="139"/>
+            <x v="140"/>
+            <x v="141"/>
+            <x v="142"/>
+            <x v="143"/>
+            <x v="144"/>
+            <x v="145"/>
+            <x v="146"/>
+            <x v="147"/>
+            <x v="148"/>
+            <x v="149"/>
+            <x v="150"/>
+            <x v="151"/>
+            <x v="152"/>
+            <x v="153"/>
+            <x v="154"/>
+            <x v="155"/>
+            <x v="156"/>
+            <x v="157"/>
+            <x v="158"/>
+            <x v="159"/>
+            <x v="160"/>
+            <x v="161"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="0" count="45">
+            <x v="162"/>
+            <x v="163"/>
+            <x v="164"/>
+            <x v="165"/>
+            <x v="166"/>
+            <x v="167"/>
+            <x v="168"/>
+            <x v="169"/>
+            <x v="170"/>
+            <x v="171"/>
+            <x v="172"/>
+            <x v="173"/>
+            <x v="174"/>
+            <x v="175"/>
+            <x v="176"/>
+            <x v="177"/>
+            <x v="178"/>
+            <x v="179"/>
+            <x v="180"/>
+            <x v="181"/>
+            <x v="182"/>
+            <x v="183"/>
+            <x v="184"/>
+            <x v="185"/>
+            <x v="186"/>
+            <x v="187"/>
+            <x v="188"/>
+            <x v="189"/>
+            <x v="190"/>
+            <x v="191"/>
+            <x v="192"/>
+            <x v="193"/>
+            <x v="194"/>
+            <x v="195"/>
+            <x v="196"/>
+            <x v="197"/>
+            <x v="198"/>
+            <x v="199"/>
+            <x v="200"/>
+            <x v="201"/>
+            <x v="202"/>
+            <x v="203"/>
+            <x v="204"/>
+            <x v="205"/>
+            <x v="206"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,4 +4540,3362 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970A1567-AB6F-4812-BB4D-9106CB041758}">
+  <dimension ref="A1:B255"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A129" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>135</v>
+      </c>
+      <c r="B32">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>55</v>
+      </c>
+      <c r="B81">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>171</v>
+      </c>
+      <c r="B87">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>106</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>178</v>
+      </c>
+      <c r="B101">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>179</v>
+      </c>
+      <c r="B102" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>181</v>
+      </c>
+      <c r="B104">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>184</v>
+      </c>
+      <c r="B107">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>50</v>
+      </c>
+      <c r="B109">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>98</v>
+      </c>
+      <c r="B111">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>42</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>191</v>
+      </c>
+      <c r="B118">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>35</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>192</v>
+      </c>
+      <c r="B122">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>193</v>
+      </c>
+      <c r="B124">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>194</v>
+      </c>
+      <c r="B125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>53</v>
+      </c>
+      <c r="B126">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>196</v>
+      </c>
+      <c r="B128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B129">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>31</v>
+      </c>
+      <c r="B130">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B132">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>198</v>
+      </c>
+      <c r="B133">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>38</v>
+      </c>
+      <c r="B135">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>37</v>
+      </c>
+      <c r="B137">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>205</v>
+      </c>
+      <c r="B143">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>211</v>
+      </c>
+      <c r="B149">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>212</v>
+      </c>
+      <c r="B150">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>81</v>
+      </c>
+      <c r="B151" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>213</v>
+      </c>
+      <c r="B152">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>216</v>
+      </c>
+      <c r="B155">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>217</v>
+      </c>
+      <c r="B156">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>218</v>
+      </c>
+      <c r="B157">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>219</v>
+      </c>
+      <c r="B158">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>220</v>
+      </c>
+      <c r="B159">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>221</v>
+      </c>
+      <c r="B160">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>225</v>
+      </c>
+      <c r="B164">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>228</v>
+      </c>
+      <c r="B167">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>230</v>
+      </c>
+      <c r="B169">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>231</v>
+      </c>
+      <c r="B170">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>232</v>
+      </c>
+      <c r="B171">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>233</v>
+      </c>
+      <c r="B172">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>234</v>
+      </c>
+      <c r="B173">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>235</v>
+      </c>
+      <c r="B174">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>236</v>
+      </c>
+      <c r="B175">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>91</v>
+      </c>
+      <c r="B176" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>90</v>
+      </c>
+      <c r="B177">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>58</v>
+      </c>
+      <c r="B179">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>61</v>
+      </c>
+      <c r="B180">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>35</v>
+      </c>
+      <c r="B181">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>39</v>
+      </c>
+      <c r="B183">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>51</v>
+      </c>
+      <c r="B184">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>56</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>87</v>
+      </c>
+      <c r="B187">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>108</v>
+      </c>
+      <c r="B189">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>52</v>
+      </c>
+      <c r="B192">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>89</v>
+      </c>
+      <c r="B193">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>53</v>
+      </c>
+      <c r="B194">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>43</v>
+      </c>
+      <c r="B195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>83</v>
+      </c>
+      <c r="B196">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>66</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>75</v>
+      </c>
+      <c r="B198">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>73</v>
+      </c>
+      <c r="B199">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>72</v>
+      </c>
+      <c r="B200">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>60</v>
+      </c>
+      <c r="B201">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>71</v>
+      </c>
+      <c r="B202">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>41</v>
+      </c>
+      <c r="B203">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>107</v>
+      </c>
+      <c r="B204">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>32</v>
+      </c>
+      <c r="B205">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>95</v>
+      </c>
+      <c r="B206">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>80</v>
+      </c>
+      <c r="B207">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>92</v>
+      </c>
+      <c r="B208">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>94</v>
+      </c>
+      <c r="B209">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>78</v>
+      </c>
+      <c r="B210">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>81</v>
+      </c>
+      <c r="B211" s="5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>88</v>
+      </c>
+      <c r="B212">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>48</v>
+      </c>
+      <c r="B213">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>93</v>
+      </c>
+      <c r="B214">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>47</v>
+      </c>
+      <c r="B216">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>46</v>
+      </c>
+      <c r="B217">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>45</v>
+      </c>
+      <c r="B218">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>68</v>
+      </c>
+      <c r="B219">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>86</v>
+      </c>
+      <c r="B220">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>85</v>
+      </c>
+      <c r="B221">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>84</v>
+      </c>
+      <c r="B222">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>55</v>
+      </c>
+      <c r="B223">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>74</v>
+      </c>
+      <c r="B224">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>63</v>
+      </c>
+      <c r="B225">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>54</v>
+      </c>
+      <c r="B226">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>65</v>
+      </c>
+      <c r="B227">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>101</v>
+      </c>
+      <c r="B228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>31</v>
+      </c>
+      <c r="B229">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>36</v>
+      </c>
+      <c r="B230">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>69</v>
+      </c>
+      <c r="B231">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>77</v>
+      </c>
+      <c r="B232">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>104</v>
+      </c>
+      <c r="B233">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>102</v>
+      </c>
+      <c r="B234">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>100</v>
+      </c>
+      <c r="B235">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>109</v>
+      </c>
+      <c r="B236">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>40</v>
+      </c>
+      <c r="B237">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>76</v>
+      </c>
+      <c r="B238">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>103</v>
+      </c>
+      <c r="B239">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>38</v>
+      </c>
+      <c r="B240">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>97</v>
+      </c>
+      <c r="B241">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>30</v>
+      </c>
+      <c r="B242">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>106</v>
+      </c>
+      <c r="B243">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>64</v>
+      </c>
+      <c r="B244">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>67</v>
+      </c>
+      <c r="B245">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>62</v>
+      </c>
+      <c r="B246">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>79</v>
+      </c>
+      <c r="B247">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>96</v>
+      </c>
+      <c r="B248">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>50</v>
+      </c>
+      <c r="B249">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>105</v>
+      </c>
+      <c r="B250">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>99</v>
+      </c>
+      <c r="B251">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>98</v>
+      </c>
+      <c r="B252">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>82</v>
+      </c>
+      <c r="B253">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>37</v>
+      </c>
+      <c r="B254">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>42</v>
+      </c>
+      <c r="B255">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{842C1D5B-6700-4270-AE39-4834F13161CB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D289">
+    <sortCondition ref="D2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A798A7B1-EE2D-4DF5-B7C6-D72BA0187A8C}">
+  <dimension ref="A3:B215"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+      <pivotSelection pane="bottomRight" showHeader="1" extendable="1" axis="axisRow" dimension="1" start="63" min="17" max="68" activeRow="66" activeCol="1" previousRow="66" previousCol="1" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="1">
+              <x v="191"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" style="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>9</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>10</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>15</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <v>18</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="7">
+        <v>20</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="7">
+        <v>24</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="7">
+        <v>30</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="7">
+        <v>31</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="7">
+        <v>11</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="7">
+        <v>29</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="7">
+        <v>12</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="7">
+        <v>13</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="7">
+        <v>21</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="7">
+        <v>23</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B95" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="7">
+        <v>14</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="7">
+        <v>16</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="7">
+        <v>17</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="7">
+        <v>19</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="7">
+        <v>22</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="7">
+        <v>25</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="7">
+        <v>26</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="7">
+        <v>27</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="7">
+        <v>28</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="7">
+        <v>41</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="7">
+        <v>44</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="7">
+        <v>46</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="7">
+        <v>34</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="7">
+        <v>35</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B117" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B118" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B119" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="7">
+        <v>48</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="7">
+        <v>45</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="7">
+        <v>38</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="7">
+        <v>42</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B124" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="7">
+        <v>40</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="7">
+        <v>32</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="7">
+        <v>33</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="7">
+        <v>37</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="7">
+        <v>43</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="7">
+        <v>47</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="7">
+        <v>36</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="7">
+        <v>49</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="7">
+        <v>39</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="7">
+        <v>65</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B135" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="7">
+        <v>51</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="7">
+        <v>58</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="7">
+        <v>67</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B143" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B144" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B145" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="7">
+        <v>59</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B147" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="7">
+        <v>60</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="7">
+        <v>50</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B150" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="7">
+        <v>55</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="7">
+        <v>64</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="7">
+        <v>56</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="7">
+        <v>57</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="7">
+        <v>68</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="7">
+        <v>72</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B157" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B158" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="7">
+        <v>52</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="7">
+        <v>61</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="7">
+        <v>62</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="7">
+        <v>63</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="7">
+        <v>53</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="7">
+        <v>54</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="7">
+        <v>66</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="7">
+        <v>71</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B167" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="7">
+        <v>70</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="7">
+        <v>69</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="7">
+        <v>76</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="7">
+        <v>75</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="7">
+        <v>73</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="7">
+        <v>74</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="7">
+        <v>77</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="7">
+        <v>78</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B177" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="7">
+        <v>79</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="7">
+        <v>82</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="7">
+        <v>83</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B181" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="7">
+        <v>84</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="7">
+        <v>85</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B184" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B185" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="7">
+        <v>86</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="7">
+        <v>87</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="7">
+        <v>88</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="7">
+        <v>89</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="7">
+        <v>81</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B191" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="7">
+        <v>80</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B193" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="7">
+        <v>93</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="7">
+        <v>90</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B196" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="7">
+        <v>91</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B198" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="7">
+        <v>96</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="7">
+        <v>292</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="7">
+        <v>293</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="7">
+        <v>294</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="7">
+        <v>295</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="7">
+        <v>296</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="7">
+        <v>297</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="7">
+        <v>298</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="7">
+        <v>299</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="7">
+        <v>300</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="7">
+        <v>92</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="7">
+        <v>94</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="7">
+        <v>95</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213"/>
+      <c r="B213"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214"/>
+      <c r="B214"/>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215"/>
+      <c r="B215"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>